--- a/Wire Harness/RW-3x LV harness bundle data.xlsx
+++ b/Wire Harness/RW-3x LV harness bundle data.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scharff.13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Branch lengths" sheetId="1" r:id="rId1"/>
     <sheet name="Branch signals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>BR-001</t>
   </si>
@@ -271,6 +271,54 @@
   </si>
   <si>
     <t>CAN_A_H</t>
+  </si>
+  <si>
+    <t>May be Switched with 10</t>
+  </si>
+  <si>
+    <t>May be Switched with 9</t>
+  </si>
+  <si>
+    <t>May be Shorter depending on where fairing is cut</t>
+  </si>
+  <si>
+    <t>Noise maker not in cad measurments are an estimiate</t>
+  </si>
+  <si>
+    <t>May be switched with 17</t>
+  </si>
+  <si>
+    <t>May be switched with 16</t>
+  </si>
+  <si>
+    <t>BR-044</t>
+  </si>
+  <si>
+    <t>BR-045</t>
+  </si>
+  <si>
+    <t>Measured From Branch</t>
+  </si>
+  <si>
+    <t>May be Switched with 25</t>
+  </si>
+  <si>
+    <t>May be Switched with 24</t>
+  </si>
+  <si>
+    <t>BR-046</t>
+  </si>
+  <si>
+    <t>Front Wheel Speed</t>
+  </si>
+  <si>
+    <t>BR-047</t>
+  </si>
+  <si>
+    <t>Rear Wheel Speed</t>
+  </si>
+  <si>
+    <t>Not in cad yet</t>
   </si>
 </sst>
 </file>
@@ -387,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,11 +655,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,9 +670,11 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -633,214 +686,499 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>330</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>226</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>230</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>330</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>230</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>187</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>680</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>570</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -848,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
